--- a/HybridFrameworkTestNG/Indigo Test Cases.xlsx
+++ b/HybridFrameworkTestNG/Indigo Test Cases.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eclipse wrokspace\28TestJuly\HybridFrameworkTestNG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eclipse wrokspace\28TestJulyGIT1\HybridFrameworkTestNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89C6887-6590-4BBC-B5EA-22F8D0BDF5B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AA6BCE-7753-4B22-A139-1DFE04CD2473}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A7409ED3-4A77-4E64-89EA-B72AD01550B0}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Verify that when the user enters the details in Book Flight screen the Flight page opens</t>
   </si>
@@ -151,13 +151,15 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -838,13 +840,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="80.109375" collapsed="true"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="80.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -914,7 +916,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -934,10 +936,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="72.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="41.88671875" collapsed="true"/>
+    <col min="2" max="2" width="72.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="49" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="41.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/HybridFrameworkTestNG/Indigo Test Cases.xlsx
+++ b/HybridFrameworkTestNG/Indigo Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eclipse wrokspace\28TestJulyGIT1\HybridFrameworkTestNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AA6BCE-7753-4B22-A139-1DFE04CD2473}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B414C30E-F6F4-4F19-AB1B-442AC0D43EF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A7409ED3-4A77-4E64-89EA-B72AD01550B0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Verify that when the user enters the details in Book Flight screen the Flight page opens</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -840,7 +837,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>37</v>
@@ -899,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>37</v>
@@ -916,7 +913,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/HybridFrameworkTestNG/Indigo Test Cases.xlsx
+++ b/HybridFrameworkTestNG/Indigo Test Cases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eclipse wrokspace\28TestJulyGIT1\HybridFrameworkTestNG\"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Verify that when the user enters the details in Book Flight screen the Flight page opens</t>
   </si>
@@ -157,6 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -842,8 +843,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="80.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="80.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -933,10 +934,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="72.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="41.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="72.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="41.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
